--- a/test_ホワイトボード/已完成/test_ホワイトボード→チラシ配布計画一覧.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボード→チラシ配布計画一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6005" uniqueCount="812">
   <si>
     <t>URL:</t>
   </si>
@@ -3997,7 +3997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM253"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4413,9 +4415,7 @@
       <c r="B56" s="49"/>
     </row>
     <row r="57" spans="1:75" s="48" customFormat="1" ht="14.25">
-      <c r="A57" s="55" t="s">
-        <v>159</v>
-      </c>
+      <c r="A57" s="55"/>
       <c r="B57" s="54" t="s">
         <v>506</v>
       </c>
@@ -27255,7 +27255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
